--- a/covid-19_dist0720_0716CSD.xlsx
+++ b/covid-19_dist0720_0716CSD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SumiKim\Desktop\MIDS_Courses\W203_Statistics\Lab3\Lab-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ADF131-8BD5-4E0F-9B36-A17682ED2779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A3E811-FA6D-43E7-BA1B-B798A03D469D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="160">
   <si>
     <t>Variables</t>
   </si>
@@ -445,10 +445,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Days in Mask Mandate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>MaskMandate_amended</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -531,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>HHSize</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cubed HHSize</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>df</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -584,6 +572,13 @@
   </si>
   <si>
     <t>Upper 50.0%</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days since Mask Mandate</t>
+  </si>
+  <si>
+    <t>Days since Mask Mandate</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1145,7 +1140,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1219,6 +1214,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1246,12 +1247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -30248,8 +30244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831ADFA7-CDC0-42CD-9539-67852CB11F50}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -30259,7 +30255,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -30272,7 +30268,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="28"/>
       <c r="D3" t="s">
@@ -30281,7 +30277,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="25">
         <v>0.53612516163350776</v>
@@ -30295,7 +30291,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="25">
         <v>0.28743018893655486</v>
@@ -30303,7 +30299,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="25">
         <v>0.25710806931683378</v>
@@ -30311,7 +30307,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="25">
         <v>7.1010656851962716E-4</v>
@@ -30319,7 +30315,7 @@
     </row>
     <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="26">
         <v>50</v>
@@ -30327,30 +30323,30 @@
     </row>
     <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="27"/>
       <c r="B11" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="F11" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="25">
         <v>2</v>
@@ -30370,7 +30366,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="25">
         <v>47</v>
@@ -30386,7 +30382,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="26">
         <v>49</v>
@@ -30402,33 +30398,33 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="G16" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="H16" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="I16" s="27" t="s">
         <v>157</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="25">
         <v>1.2656318476405803E-3</v>
@@ -30456,8 +30452,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="s">
-        <v>147</v>
+      <c r="A18" t="s">
+        <v>120</v>
       </c>
       <c r="B18" s="25">
         <v>-2.478181159291006E-6</v>
@@ -30486,7 +30482,7 @@
     </row>
     <row r="19" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="26" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B19" s="26">
         <v>6.058683432618303E-5</v>
@@ -31091,8 +31087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE74C6-D54C-42EA-B6C3-0D1DA0A56FD9}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -31102,7 +31098,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -31115,16 +31111,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="28"/>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="25">
         <v>0.50930004830844633</v>
@@ -31138,7 +31134,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="25">
         <v>0.25938653920698573</v>
@@ -31146,7 +31142,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="25">
         <v>0.22787107279026173</v>
@@ -31154,7 +31150,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="25">
         <v>7.2394508010952408E-4</v>
@@ -31162,7 +31158,7 @@
     </row>
     <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="26">
         <v>50</v>
@@ -31170,30 +31166,30 @@
     </row>
     <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="27"/>
       <c r="B11" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="F11" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="25">
         <v>2</v>
@@ -31213,7 +31209,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="25">
         <v>47</v>
@@ -31229,7 +31225,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="26">
         <v>49</v>
@@ -31245,33 +31241,33 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="G16" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="H16" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="I16" s="27" t="s">
         <v>157</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="25">
         <v>2.357393649968168E-3</v>
@@ -31299,8 +31295,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="s">
-        <v>147</v>
+      <c r="A18" t="s">
+        <v>120</v>
       </c>
       <c r="B18" s="25">
         <v>-2.419781857537103E-6</v>
@@ -31328,8 +31324,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="26" t="s">
-        <v>148</v>
+      <c r="A19" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="B19" s="26">
         <v>-2.8974738503825112E-6</v>
@@ -31935,7 +31931,7 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:I16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -31945,13 +31941,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="28"/>
       <c r="D3" t="s">
@@ -31960,51 +31956,51 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="25">
         <v>0.53509550839625397</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="25">
         <v>0.28632720310584547</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="25">
         <v>0.25595814791886018</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="25">
         <v>0.33455175417769534</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="26">
         <v>50</v>
@@ -32012,30 +32008,30 @@
     </row>
     <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="27"/>
       <c r="B11" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="F11" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="25">
         <v>2</v>
@@ -32055,7 +32051,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="25">
         <v>47</v>
@@ -32071,7 +32067,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="26">
         <v>49</v>
@@ -32086,34 +32082,34 @@
     <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="27"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="G16" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="H16" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="I16" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="25">
         <v>-2.6753119285471127</v>
@@ -32141,8 +32137,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="s">
-        <v>147</v>
+      <c r="A18" t="s">
+        <v>128</v>
       </c>
       <c r="B18" s="25">
         <v>-2.6205286452368631E-3</v>
@@ -32170,8 +32166,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="26" t="s">
-        <v>148</v>
+      <c r="A19" s="40" t="s">
+        <v>129</v>
       </c>
       <c r="B19" s="26">
         <v>-1.1903069013661696E-3</v>
@@ -32209,7 +32205,7 @@
         <v>116</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>117</v>
@@ -32777,7 +32773,7 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -32787,13 +32783,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="28"/>
       <c r="D3" t="s">
@@ -32802,51 +32798,51 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="25">
         <v>0.54560989292137163</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="25">
         <v>0.29769015525367065</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="25">
         <v>0.26780462994531623</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="25">
         <v>0.37869934953067796</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="26">
         <v>50</v>
@@ -32854,30 +32850,30 @@
     </row>
     <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="27"/>
       <c r="B11" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="F11" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="25">
         <v>2</v>
@@ -32897,7 +32893,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="25">
         <v>47</v>
@@ -32913,7 +32909,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="26">
         <v>49</v>
@@ -32928,34 +32924,34 @@
     <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="27"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="G16" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="H16" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="I16" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="25">
         <v>-0.6953784081253449</v>
@@ -32983,8 +32979,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="s">
-        <v>147</v>
+      <c r="A18" t="s">
+        <v>128</v>
       </c>
       <c r="B18" s="25">
         <v>-5.7700687914804235E-3</v>
@@ -33012,8 +33008,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="26" t="s">
-        <v>148</v>
+      <c r="A19" s="40" t="s">
+        <v>129</v>
       </c>
       <c r="B19" s="26">
         <v>-6.1838415105263203E-4</v>
@@ -33051,7 +33047,7 @@
         <v>116</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>117</v>
@@ -33619,11 +33615,11 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R50" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I44" sqref="F44:I55"/>
       <selection pane="topRight" activeCell="I44" sqref="F44:I55"/>
       <selection pane="bottomLeft" activeCell="I44" sqref="F44:I55"/>
-      <selection pane="bottomRight" activeCell="AK3" sqref="AK3:AK52"/>
+      <selection pane="bottomRight" activeCell="AN72" sqref="AN72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -33741,10 +33737,10 @@
         <v>113</v>
       </c>
       <c r="AI1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="AK1" s="9" t="s">
         <v>13</v>
@@ -33876,7 +33872,7 @@
         <v>43962</v>
       </c>
       <c r="AJ2">
-        <f>L2-AI2</f>
+        <f t="shared" ref="AJ2:AJ33" si="3">L2-AI2</f>
         <v>-11</v>
       </c>
       <c r="AK2">
@@ -33989,11 +33985,11 @@
         <v>43945</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF51" si="3">AE3-AD3</f>
+        <f t="shared" ref="AF3:AF51" si="4">AE3-AD3</f>
         <v>27</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG52" si="4">$AM$1-L3</f>
+        <f t="shared" ref="AG3:AG52" si="5">$AM$1-L3</f>
         <v>69</v>
       </c>
       <c r="AH3">
@@ -34001,19 +33997,19 @@
         <v>69</v>
       </c>
       <c r="AI3" s="21">
-        <f t="shared" ref="AI3:AI52" si="5">IF(M3=0,$AM$1,M3)</f>
+        <f t="shared" ref="AI3:AI52" si="6">IF(M3=0,$AM$1,M3)</f>
         <v>43945</v>
       </c>
       <c r="AJ3">
-        <f>L3-AI3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK52" si="6">N3</f>
+        <f t="shared" ref="AK3:AK52" si="7">N3</f>
         <v>370</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL52" si="7">Q3</f>
+        <f t="shared" ref="AL3:AL52" si="8">Q3</f>
         <v>10.9</v>
       </c>
     </row>
@@ -34094,7 +34090,7 @@
         <v>0.18</v>
       </c>
       <c r="Z4" s="23">
-        <f t="shared" ref="Z4" si="8">E4/P4</f>
+        <f t="shared" ref="Z4" si="9">E4/P4</f>
         <v>3.9095627419423662E-3</v>
       </c>
       <c r="AA4" s="23">
@@ -34102,7 +34098,7 @@
         <v>1.367733432464458E-2</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB52" si="9">LOG(E4/(B4-E4))</f>
+        <f t="shared" ref="AB4:AB52" si="10">LOG(E4/(B4-E4))</f>
         <v>-0.39766730794805549</v>
       </c>
       <c r="AC4">
@@ -34118,11 +34114,11 @@
         <v>43967</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="AH4">
@@ -34130,19 +34126,19 @@
         <v>55</v>
       </c>
       <c r="AI4" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43959</v>
       </c>
       <c r="AJ4">
-        <f>L4-AI4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -34223,7 +34219,7 @@
         <v>0.17</v>
       </c>
       <c r="Z5" s="23">
-        <f t="shared" ref="Z5:Z52" si="10">E5/P5</f>
+        <f t="shared" ref="Z5:Z52" si="11">E5/P5</f>
         <v>1.4944464260532712E-3</v>
       </c>
       <c r="AA5" s="23">
@@ -34231,11 +34227,11 @@
         <v>7.9015868539148749E-3</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.63218389193610491</v>
       </c>
       <c r="AC5">
-        <f t="shared" ref="AC5:AC52" si="11">LOG(Z5)</f>
+        <f t="shared" ref="AC5:AC52" si="12">LOG(Z5)</f>
         <v>-2.8255196492339185</v>
       </c>
       <c r="AD5" s="21">
@@ -34250,7 +34246,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="AH5">
@@ -34258,19 +34254,19 @@
         <v>52</v>
       </c>
       <c r="AI5" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43962</v>
       </c>
       <c r="AJ5">
-        <f>L5-AI5</f>
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>451</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.2</v>
       </c>
     </row>
@@ -34351,19 +34347,19 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="Z6" s="23">
+        <f t="shared" si="11"/>
+        <v>1.3580893112718608E-3</v>
+      </c>
+      <c r="AA6" s="23">
+        <f t="shared" ref="AA6:AA52" si="13">B6/P6</f>
+        <v>6.5767046047044211E-3</v>
+      </c>
+      <c r="AB6">
         <f t="shared" si="10"/>
-        <v>1.3580893112718608E-3</v>
-      </c>
-      <c r="AA6" s="23">
-        <f t="shared" ref="AA6:AA52" si="12">B6/P6</f>
-        <v>6.5767046047044211E-3</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="9"/>
         <v>-0.58462695150778443</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.8670716688499676</v>
       </c>
       <c r="AD6" s="21">
@@ -34375,11 +34371,11 @@
         <v>44014</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="AH6">
@@ -34387,19 +34383,19 @@
         <v>58</v>
       </c>
       <c r="AI6" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43956</v>
       </c>
       <c r="AJ6">
-        <f>L6-AI6</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.8</v>
       </c>
     </row>
@@ -34480,19 +34476,19 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="Z7" s="23">
+        <f t="shared" si="11"/>
+        <v>3.5870020949637299E-4</v>
+      </c>
+      <c r="AA7" s="23">
+        <f t="shared" si="13"/>
+        <v>5.9809704534967917E-3</v>
+      </c>
+      <c r="AB7">
         <f t="shared" si="10"/>
-        <v>3.5870020949637299E-4</v>
-      </c>
-      <c r="AA7" s="23">
+        <v>-1.1951800865547835</v>
+      </c>
+      <c r="AC7">
         <f t="shared" si="12"/>
-        <v>5.9809704534967917E-3</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="9"/>
-        <v>-1.1951800865547835</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="11"/>
         <v>-3.445268369677275</v>
       </c>
       <c r="AD7" s="21">
@@ -34504,11 +34500,11 @@
         <v>43948</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="AH7">
@@ -34516,19 +34512,19 @@
         <v>70</v>
       </c>
       <c r="AI7" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43944</v>
       </c>
       <c r="AJ7">
-        <f>L7-AI7</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>618</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
     </row>
@@ -34609,19 +34605,19 @@
         <v>0.17</v>
       </c>
       <c r="Z8" s="23">
+        <f t="shared" si="11"/>
+        <v>1.4303048284683843E-4</v>
+      </c>
+      <c r="AA8" s="23">
+        <f t="shared" si="13"/>
+        <v>1.3076233008132584E-2</v>
+      </c>
+      <c r="AB8">
         <f t="shared" si="10"/>
-        <v>1.4303048284683843E-4</v>
-      </c>
-      <c r="AA8" s="23">
+        <v>-1.9562774736400368</v>
+      </c>
+      <c r="AC8">
         <f t="shared" si="12"/>
-        <v>1.3076233008132584E-2</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="9"/>
-        <v>-1.9562774736400368</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="11"/>
         <v>-3.8445713952526472</v>
       </c>
       <c r="AD8" s="21">
@@ -34633,11 +34629,11 @@
         <v>44014</v>
       </c>
       <c r="AF8">
-        <f t="shared" ref="AF8" si="13">AE8-AD8</f>
+        <f t="shared" ref="AF8" si="14">AE8-AD8</f>
         <v>101</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="AH8">
@@ -34645,19 +34641,19 @@
         <v>90</v>
       </c>
       <c r="AI8" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43924</v>
       </c>
       <c r="AJ8">
-        <f>L8-AI8</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>649</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.4</v>
       </c>
     </row>
@@ -34738,19 +34734,19 @@
         <v>0.19</v>
       </c>
       <c r="Z9" s="23">
+        <f t="shared" si="11"/>
+        <v>1.1321679413464631E-3</v>
+      </c>
+      <c r="AA9" s="23">
+        <f t="shared" si="13"/>
+        <v>1.2767132182416553E-2</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="10"/>
-        <v>1.1321679413464631E-3</v>
-      </c>
-      <c r="AA9" s="23">
+        <v>-1.0118541996942481</v>
+      </c>
+      <c r="AC9">
         <f t="shared" si="12"/>
-        <v>1.2767132182416553E-2</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="9"/>
-        <v>-1.0118541996942481</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="11"/>
         <v>-2.9460891468312589</v>
       </c>
       <c r="AD9" s="21">
@@ -34762,11 +34758,11 @@
         <v>43983</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="AH9">
@@ -34774,19 +34770,19 @@
         <v>62</v>
       </c>
       <c r="AI9" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43952</v>
       </c>
       <c r="AJ9">
-        <f>L9-AI9</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
     </row>
@@ -34867,19 +34863,19 @@
         <v>0.12</v>
       </c>
       <c r="Z10" s="23">
+        <f t="shared" si="11"/>
+        <v>3.7867194339850951E-4</v>
+      </c>
+      <c r="AA10" s="23">
+        <f t="shared" si="13"/>
+        <v>1.4921952295876605E-2</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="10"/>
-        <v>3.7867194339850951E-4</v>
-      </c>
-      <c r="AA10" s="23">
+        <v>-1.5843992476242919</v>
+      </c>
+      <c r="AC10">
         <f t="shared" si="12"/>
-        <v>1.4921952295876605E-2</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="9"/>
-        <v>-1.5843992476242919</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="11"/>
         <v>-3.421736871479641</v>
       </c>
       <c r="AD10" s="21">
@@ -34891,11 +34887,11 @@
         <v>43980</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="AH10">
@@ -34903,19 +34899,19 @@
         <v>78</v>
       </c>
       <c r="AI10" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43936</v>
       </c>
       <c r="AJ10">
-        <f>L10-AI10</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>444</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.2</v>
       </c>
     </row>
@@ -34996,19 +34992,19 @@
         <v>0.21</v>
       </c>
       <c r="Z11" s="23">
+        <f t="shared" si="11"/>
+        <v>3.1448883943505251E-3</v>
+      </c>
+      <c r="AA11" s="23">
+        <f t="shared" si="13"/>
+        <v>9.2526875851699532E-3</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="10"/>
-        <v>3.1448883943505251E-3</v>
-      </c>
-      <c r="AA11" s="23">
+        <v>-0.28827951226849219</v>
+      </c>
+      <c r="AC11">
         <f t="shared" si="12"/>
-        <v>9.2526875851699532E-3</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="9"/>
-        <v>-0.28827951226849219</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="11"/>
         <v>-2.502394762167123</v>
       </c>
       <c r="AD11" s="21">
@@ -35020,11 +35016,11 @@
         <v>43969</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="AH11">
@@ -35032,19 +35028,19 @@
         <v>52</v>
       </c>
       <c r="AI11" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43962</v>
       </c>
       <c r="AJ11">
-        <f>L11-AI11</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>275</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.6</v>
       </c>
     </row>
@@ -35125,19 +35121,19 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="Z12" s="23">
+        <f t="shared" si="11"/>
+        <v>1.9517133697261508E-3</v>
+      </c>
+      <c r="AA12" s="23">
+        <f t="shared" si="13"/>
+        <v>9.0799208135386982E-3</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="10"/>
-        <v>1.9517133697261508E-3</v>
-      </c>
-      <c r="AA12" s="23">
+        <v>-0.56256429281346254</v>
+      </c>
+      <c r="AC12">
         <f t="shared" si="12"/>
-        <v>9.0799208135386982E-3</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="9"/>
-        <v>-0.56256429281346254</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="11"/>
         <v>-2.7095839628407377</v>
       </c>
       <c r="AD12" s="21">
@@ -35149,11 +35145,11 @@
         <v>43952</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="AH12">
@@ -35161,19 +35157,19 @@
         <v>66</v>
       </c>
       <c r="AI12" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43948</v>
       </c>
       <c r="AJ12">
-        <f>L12-AI12</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>365</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.3</v>
       </c>
     </row>
@@ -35254,19 +35250,19 @@
         <v>0.19</v>
       </c>
       <c r="Z13" s="23">
+        <f t="shared" si="11"/>
+        <v>9.6445524822050973E-5</v>
+      </c>
+      <c r="AA13" s="23">
+        <f t="shared" si="13"/>
+        <v>6.6103903509420335E-4</v>
+      </c>
+      <c r="AB13">
         <f t="shared" si="10"/>
-        <v>9.6445524822050973E-5</v>
-      </c>
-      <c r="AA13" s="23">
+        <v>-0.76745380112775674</v>
+      </c>
+      <c r="AC13">
         <f t="shared" si="12"/>
-        <v>6.6103903509420335E-4</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="9"/>
-        <v>-0.76745380112775674</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="11"/>
         <v>-4.0157179192920447</v>
       </c>
       <c r="AD13" s="21">
@@ -35278,11 +35274,11 @@
         <v>44014</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="AH13">
@@ -35290,19 +35286,19 @@
         <v>77</v>
       </c>
       <c r="AI13" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43937</v>
       </c>
       <c r="AJ13">
-        <f>L13-AI13</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>648</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -35383,19 +35379,19 @@
         <v>0.16</v>
       </c>
       <c r="Z14" s="23">
+        <f t="shared" si="11"/>
+        <v>1.376119593571572E-3</v>
+      </c>
+      <c r="AA14" s="23">
+        <f t="shared" si="13"/>
+        <v>4.4082571736076904E-3</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="10"/>
-        <v>1.376119593571572E-3</v>
-      </c>
-      <c r="AA14" s="23">
+        <v>-0.34309272455924983</v>
+      </c>
+      <c r="AC14">
         <f t="shared" si="12"/>
-        <v>4.4082571736076904E-3</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="9"/>
-        <v>-0.34309272455924983</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="11"/>
         <v>-2.8613438214993216</v>
       </c>
       <c r="AD14" s="21">
@@ -35407,30 +35403,30 @@
         <v>43952</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
       <c r="AI14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44014</v>
       </c>
       <c r="AJ14">
-        <f>L14-AI14</f>
+        <f t="shared" si="3"/>
         <v>-62</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>448</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.8</v>
       </c>
     </row>
@@ -35511,19 +35507,19 @@
         <v>0.15</v>
       </c>
       <c r="Z15" s="23">
+        <f t="shared" si="11"/>
+        <v>4.8998985957234399E-4</v>
+      </c>
+      <c r="AA15" s="23">
+        <f t="shared" si="13"/>
+        <v>1.1645245144053722E-2</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="10"/>
-        <v>4.8998985957234399E-4</v>
-      </c>
-      <c r="AA15" s="23">
+        <v>-1.3572924211054966</v>
+      </c>
+      <c r="AC15">
         <f t="shared" si="12"/>
-        <v>1.1645245144053722E-2</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="9"/>
-        <v>-1.3572924211054966</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="11"/>
         <v>-3.3098129076803535</v>
       </c>
       <c r="AD15" s="21">
@@ -35535,11 +35531,11 @@
         <v>43980</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="AH15">
@@ -35547,19 +35543,19 @@
         <v>62</v>
       </c>
       <c r="AI15" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43952</v>
       </c>
       <c r="AJ15">
-        <f>L15-AI15</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>484</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.1</v>
       </c>
     </row>
@@ -35640,19 +35636,19 @@
         <v>0.16</v>
       </c>
       <c r="Z16" s="23">
+        <f t="shared" si="11"/>
+        <v>5.130099502710599E-4</v>
+      </c>
+      <c r="AA16" s="23">
+        <f t="shared" si="13"/>
+        <v>7.174069820161097E-3</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="10"/>
-        <v>5.130099502710599E-4</v>
-      </c>
-      <c r="AA16" s="23">
+        <v>-1.113417548421642</v>
+      </c>
+      <c r="AC16">
         <f t="shared" si="12"/>
-        <v>7.174069820161097E-3</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="9"/>
-        <v>-1.113417548421642</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="11"/>
         <v>-3.2898742112899257</v>
       </c>
       <c r="AD16" s="21">
@@ -35664,11 +35660,11 @@
         <v>43969</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="AH16">
@@ -35676,19 +35672,19 @@
         <v>62</v>
       </c>
       <c r="AI16" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43952</v>
       </c>
       <c r="AJ16">
-        <f>L16-AI16</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>390</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.1</v>
       </c>
     </row>
@@ -35769,19 +35765,19 @@
         <v>0.17</v>
       </c>
       <c r="Z17" s="23">
+        <f t="shared" si="11"/>
+        <v>1.0585698692550565E-3</v>
+      </c>
+      <c r="AA17" s="23">
+        <f t="shared" si="13"/>
+        <v>9.933954238477637E-3</v>
+      </c>
+      <c r="AB17">
         <f t="shared" si="10"/>
-        <v>1.0585698692550565E-3</v>
-      </c>
-      <c r="AA17" s="23">
+        <v>-0.92346764203782261</v>
+      </c>
+      <c r="AC17">
         <f t="shared" si="12"/>
-        <v>9.933954238477637E-3</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="9"/>
-        <v>-0.92346764203782261</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="11"/>
         <v>-2.975280471767852</v>
       </c>
       <c r="AD17" s="21">
@@ -35796,26 +35792,26 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AI17" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44014</v>
       </c>
       <c r="AJ17">
-        <f>L17-AI17</f>
+        <f t="shared" si="3"/>
         <v>-48</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>481</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.2</v>
       </c>
     </row>
@@ -35896,19 +35892,19 @@
         <v>0.16</v>
       </c>
       <c r="Z18" s="23">
+        <f t="shared" si="11"/>
+        <v>8.1779011198675601E-4</v>
+      </c>
+      <c r="AA18" s="23">
+        <f t="shared" si="13"/>
+        <v>5.4676189805615994E-3</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="10"/>
-        <v>8.1779011198675601E-4</v>
-      </c>
-      <c r="AA18" s="23">
+        <v>-0.75479511435635982</v>
+      </c>
+      <c r="AC18">
         <f t="shared" si="12"/>
-        <v>5.4676189805615994E-3</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="9"/>
-        <v>-0.75479511435635982</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="11"/>
         <v>-3.0873581448645275</v>
       </c>
       <c r="AD18" s="21">
@@ -35920,30 +35916,30 @@
         <v>43955</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="AH18">
         <v>0</v>
       </c>
       <c r="AI18" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44014</v>
       </c>
       <c r="AJ18">
-        <f>L18-AI18</f>
+        <f t="shared" si="3"/>
         <v>-59</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>488</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -36021,19 +36017,19 @@
         <v>0.16</v>
       </c>
       <c r="Z19" s="23">
+        <f t="shared" si="11"/>
+        <v>2.7056652467705459E-4</v>
+      </c>
+      <c r="AA19" s="23">
+        <f t="shared" si="13"/>
+        <v>3.6648448371475978E-3</v>
+      </c>
+      <c r="AB19">
         <f t="shared" si="10"/>
-        <v>2.7056652467705459E-4</v>
-      </c>
-      <c r="AA19" s="23">
+        <v>-1.0984733859054585</v>
+      </c>
+      <c r="AC19">
         <f t="shared" si="12"/>
-        <v>3.6648448371475978E-3</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="9"/>
-        <v>-1.0984733859054585</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="11"/>
         <v>-3.5677259366643019</v>
       </c>
       <c r="AD19" s="21">
@@ -36048,27 +36044,27 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="AH19">
-        <f t="shared" ref="AH19:AH26" si="14">$AM$1-M19</f>
+        <f t="shared" ref="AH19:AH26" si="15">$AM$1-M19</f>
         <v>52</v>
       </c>
       <c r="AI19" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43962</v>
       </c>
       <c r="AJ19">
-        <f>L19-AI19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>552</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.899999999999999</v>
       </c>
     </row>
@@ -36149,19 +36145,19 @@
         <v>0.15</v>
       </c>
       <c r="Z20" s="23">
+        <f t="shared" si="11"/>
+        <v>2.2440020103099197E-3</v>
+      </c>
+      <c r="AA20" s="23">
+        <f t="shared" si="13"/>
+        <v>1.3997061788703724E-2</v>
+      </c>
+      <c r="AB20">
         <f t="shared" si="10"/>
-        <v>2.2440020103099197E-3</v>
-      </c>
-      <c r="AA20" s="23">
+        <v>-0.71912770341480126</v>
+      </c>
+      <c r="AC20">
         <f t="shared" si="12"/>
-        <v>1.3997061788703724E-2</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="9"/>
-        <v>-0.71912770341480126</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="11"/>
         <v>-2.6489767583489803</v>
       </c>
       <c r="AD20" s="21">
@@ -36173,31 +36169,31 @@
         <v>43966</v>
       </c>
       <c r="AF20">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="15"/>
+        <v>62</v>
+      </c>
+      <c r="AI20" s="21">
+        <f t="shared" si="6"/>
+        <v>43952</v>
+      </c>
+      <c r="AJ20">
         <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="14"/>
-        <v>62</v>
-      </c>
-      <c r="AI20" s="21">
-        <f t="shared" si="5"/>
-        <v>43952</v>
-      </c>
-      <c r="AJ20">
-        <f>L20-AI20</f>
         <v>0</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>247</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -36278,19 +36274,19 @@
         <v>0.21</v>
       </c>
       <c r="Z21" s="23">
+        <f t="shared" si="11"/>
+        <v>1.7334078499466529E-4</v>
+      </c>
+      <c r="AA21" s="23">
+        <f t="shared" si="13"/>
+        <v>2.5575237372273247E-3</v>
+      </c>
+      <c r="AB21">
         <f t="shared" si="10"/>
-        <v>1.7334078499466529E-4</v>
-      </c>
-      <c r="AA21" s="23">
+        <v>-1.1384388193026107</v>
+      </c>
+      <c r="AC21">
         <f t="shared" si="12"/>
-        <v>2.5575237372273247E-3</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="9"/>
-        <v>-1.1384388193026107</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="11"/>
         <v>-3.76109924101273</v>
       </c>
       <c r="AD21" s="21">
@@ -36302,31 +36298,31 @@
         <v>43982</v>
       </c>
       <c r="AF21">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="15"/>
+        <v>62</v>
+      </c>
+      <c r="AI21" s="21">
+        <f t="shared" si="6"/>
+        <v>43952</v>
+      </c>
+      <c r="AJ21">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="14"/>
-        <v>62</v>
-      </c>
-      <c r="AI21" s="21">
-        <f t="shared" si="5"/>
-        <v>43952</v>
-      </c>
-      <c r="AJ21">
-        <f>L21-AI21</f>
         <v>0</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>445</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.6</v>
       </c>
     </row>
@@ -36407,19 +36403,19 @@
         <v>0.15</v>
       </c>
       <c r="Z22" s="23">
+        <f t="shared" si="11"/>
+        <v>5.1748236472395372E-4</v>
+      </c>
+      <c r="AA22" s="23">
+        <f t="shared" si="13"/>
+        <v>1.1568304196886236E-2</v>
+      </c>
+      <c r="AB22">
         <f t="shared" si="10"/>
-        <v>5.1748236472395372E-4</v>
-      </c>
-      <c r="AA22" s="23">
+        <v>-1.3294990229526318</v>
+      </c>
+      <c r="AC22">
         <f t="shared" si="12"/>
-        <v>1.1568304196886236E-2</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="9"/>
-        <v>-1.3294990229526318</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="11"/>
         <v>-3.2861044459359259</v>
       </c>
       <c r="AD22" s="21">
@@ -36431,31 +36427,31 @@
         <v>43966</v>
       </c>
       <c r="AF22">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="AI22" s="21">
+        <f t="shared" si="6"/>
+        <v>43939</v>
+      </c>
+      <c r="AJ22">
         <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="14"/>
-        <v>75</v>
-      </c>
-      <c r="AI22" s="21">
-        <f t="shared" si="5"/>
-        <v>43939</v>
-      </c>
-      <c r="AJ22">
-        <f>L22-AI22</f>
         <v>27</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>430</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -36536,19 +36532,19 @@
         <v>0.17</v>
       </c>
       <c r="Z23" s="23">
+        <f t="shared" si="11"/>
+        <v>2.2181497385814186E-4</v>
+      </c>
+      <c r="AA23" s="23">
+        <f t="shared" si="13"/>
+        <v>1.5933298455307179E-2</v>
+      </c>
+      <c r="AB23">
         <f t="shared" si="10"/>
-        <v>2.2181497385814186E-4</v>
-      </c>
-      <c r="AA23" s="23">
+        <v>-1.8502263328304733</v>
+      </c>
+      <c r="AC23">
         <f t="shared" si="12"/>
-        <v>1.5933298455307179E-2</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="9"/>
-        <v>-1.8502263328304733</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="11"/>
         <v>-3.6540091396816257</v>
       </c>
       <c r="AD23" s="21">
@@ -36560,31 +36556,31 @@
         <v>43969</v>
       </c>
       <c r="AF23">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="15"/>
+        <v>57</v>
+      </c>
+      <c r="AI23" s="21">
+        <f t="shared" si="6"/>
+        <v>43957</v>
+      </c>
+      <c r="AJ23">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="14"/>
-        <v>57</v>
-      </c>
-      <c r="AI23" s="21">
-        <f t="shared" si="5"/>
-        <v>43957</v>
-      </c>
-      <c r="AJ23">
-        <f>L23-AI23</f>
         <v>12</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>823</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -36665,19 +36661,19 @@
         <v>0.17</v>
       </c>
       <c r="Z24" s="23">
+        <f t="shared" si="11"/>
+        <v>3.2633330715597323E-4</v>
+      </c>
+      <c r="AA24" s="23">
+        <f t="shared" si="13"/>
+        <v>7.2970808575303012E-3</v>
+      </c>
+      <c r="AB24">
         <f t="shared" si="10"/>
-        <v>3.2633330715597323E-4</v>
-      </c>
-      <c r="AA24" s="23">
+        <v>-1.329617952551402</v>
+      </c>
+      <c r="AC24">
         <f t="shared" si="12"/>
-        <v>7.2970808575303012E-3</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="9"/>
-        <v>-1.329617952551402</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="11"/>
         <v>-3.4863385977541657</v>
       </c>
       <c r="AD24" s="21">
@@ -36689,31 +36685,31 @@
         <v>43983</v>
       </c>
       <c r="AF24">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="AI24" s="21">
+        <f t="shared" si="6"/>
+        <v>43947</v>
+      </c>
+      <c r="AJ24">
         <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="14"/>
-        <v>67</v>
-      </c>
-      <c r="AI24" s="21">
-        <f t="shared" si="5"/>
-        <v>43947</v>
-      </c>
-      <c r="AJ24">
-        <f>L24-AI24</f>
         <v>30</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>362</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.1</v>
       </c>
     </row>
@@ -36798,15 +36794,15 @@
         <v>5.3821130995821017E-4</v>
       </c>
       <c r="AA25" s="23">
+        <f t="shared" si="13"/>
+        <v>6.8736000045623207E-3</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="10"/>
+        <v>-1.0708204454956882</v>
+      </c>
+      <c r="AC25">
         <f t="shared" si="12"/>
-        <v>6.8736000045623207E-3</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="9"/>
-        <v>-1.0708204454956882</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="11"/>
         <v>-3.2690471802236352</v>
       </c>
       <c r="AD25" s="21">
@@ -36818,31 +36814,31 @@
         <v>43969</v>
       </c>
       <c r="AF25">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="AI25" s="21">
+        <f t="shared" si="6"/>
+        <v>43983</v>
+      </c>
+      <c r="AJ25">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="AI25" s="21">
-        <f t="shared" si="5"/>
-        <v>43983</v>
-      </c>
-      <c r="AJ25">
-        <f>L25-AI25</f>
         <v>-35</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>462</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
     </row>
@@ -36923,19 +36919,19 @@
         <v>0.16</v>
       </c>
       <c r="Z26" s="23">
+        <f t="shared" si="11"/>
+        <v>1.7963991655868181E-3</v>
+      </c>
+      <c r="AA26" s="23">
+        <f t="shared" si="13"/>
+        <v>1.0465992305451477E-2</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="10"/>
-        <v>1.7963991655868181E-3</v>
-      </c>
-      <c r="AA26" s="23">
+        <v>-0.68359587204392291</v>
+      </c>
+      <c r="AC26">
         <f t="shared" si="12"/>
-        <v>1.0465992305451477E-2</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="9"/>
-        <v>-0.68359587204392291</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="11"/>
         <v>-2.7455971553356227</v>
       </c>
       <c r="AD26" s="21">
@@ -36947,31 +36943,31 @@
         <v>43948</v>
       </c>
       <c r="AF26">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="15"/>
+        <v>56</v>
+      </c>
+      <c r="AI26" s="21">
+        <f t="shared" si="6"/>
+        <v>43958</v>
+      </c>
+      <c r="AJ26">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="14"/>
-        <v>56</v>
-      </c>
-      <c r="AI26" s="21">
-        <f t="shared" si="5"/>
-        <v>43958</v>
-      </c>
-      <c r="AJ26">
-        <f>L26-AI26</f>
         <v>-10</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>235</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.7</v>
       </c>
     </row>
@@ -37052,19 +37048,19 @@
         <v>0.17</v>
       </c>
       <c r="Z27" s="23">
+        <f t="shared" si="11"/>
+        <v>5.1824449126509117E-4</v>
+      </c>
+      <c r="AA27" s="23">
+        <f t="shared" si="13"/>
+        <v>3.8253788652877719E-3</v>
+      </c>
+      <c r="AB27">
         <f t="shared" si="10"/>
-        <v>5.1824449126509117E-4</v>
-      </c>
-      <c r="AA27" s="23">
+        <v>-0.80491714692263583</v>
+      </c>
+      <c r="AC27">
         <f t="shared" si="12"/>
-        <v>3.8253788652877719E-3</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="9"/>
-        <v>-0.80491714692263583</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="11"/>
         <v>-3.2854653055889269</v>
       </c>
       <c r="AD27" s="21">
@@ -37076,30 +37072,30 @@
         <v>43955</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="AH27">
         <v>0</v>
       </c>
       <c r="AI27" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44014</v>
       </c>
       <c r="AJ27">
-        <f>L27-AI27</f>
+        <f t="shared" si="3"/>
         <v>-59</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.2</v>
       </c>
     </row>
@@ -37180,19 +37176,19 @@
         <v>0.19</v>
       </c>
       <c r="Z28" s="23">
+        <f t="shared" si="11"/>
+        <v>3.7371564663632386E-4</v>
+      </c>
+      <c r="AA28" s="23">
+        <f t="shared" si="13"/>
+        <v>1.1757451955888374E-3</v>
+      </c>
+      <c r="AB28">
         <f t="shared" si="10"/>
-        <v>3.7371564663632386E-4</v>
-      </c>
-      <c r="AA28" s="23">
+        <v>-0.33164908800358506</v>
+      </c>
+      <c r="AC28">
         <f t="shared" si="12"/>
-        <v>1.1757451955888374E-3</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="9"/>
-        <v>-0.33164908800358506</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="11"/>
         <v>-3.4274587188333623</v>
       </c>
       <c r="AD28" s="21">
@@ -37204,30 +37200,30 @@
         <v>43947</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="AH28">
         <v>0</v>
       </c>
       <c r="AI28" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44014</v>
       </c>
       <c r="AJ28">
-        <f>L28-AI28</f>
+        <f t="shared" si="3"/>
         <v>-66</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>552</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
@@ -37308,19 +37304,19 @@
         <v>0.16</v>
       </c>
       <c r="Z29" s="23">
+        <f t="shared" si="11"/>
+        <v>5.981543258894047E-4</v>
+      </c>
+      <c r="AA29" s="23">
+        <f t="shared" si="13"/>
+        <v>1.032982457595316E-2</v>
+      </c>
+      <c r="AB29">
         <f t="shared" si="10"/>
-        <v>5.981543258894047E-4</v>
-      </c>
-      <c r="AA29" s="23">
+        <v>-1.2113741368564934</v>
+      </c>
+      <c r="AC29">
         <f t="shared" si="12"/>
-        <v>1.032982457595316E-2</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="9"/>
-        <v>-1.2113741368564934</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="11"/>
         <v>-3.2231867520728406</v>
       </c>
       <c r="AD29" s="21">
@@ -37335,27 +37331,27 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="AH29">
-        <f t="shared" ref="AH29:AH37" si="15">$AM$1-M29</f>
+        <f t="shared" ref="AH29:AH37" si="16">$AM$1-M29</f>
         <v>59</v>
       </c>
       <c r="AI29" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43955</v>
       </c>
       <c r="AJ29">
-        <f>L29-AI29</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>440</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -37436,19 +37432,19 @@
         <v>0.16</v>
       </c>
       <c r="Z30" s="23">
+        <f t="shared" si="11"/>
+        <v>2.0004007392584741E-3</v>
+      </c>
+      <c r="AA30" s="23">
+        <f t="shared" si="13"/>
+        <v>7.4631095784592101E-3</v>
+      </c>
+      <c r="AB30">
         <f t="shared" si="10"/>
-        <v>2.0004007392584741E-3</v>
-      </c>
-      <c r="AA30" s="23">
+        <v>-0.43629104698988141</v>
+      </c>
+      <c r="AC30">
         <f t="shared" si="12"/>
-        <v>7.4631095784592101E-3</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="9"/>
-        <v>-0.43629104698988141</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="11"/>
         <v>-2.6988829936285605</v>
       </c>
       <c r="AD30" s="21">
@@ -37460,31 +37456,31 @@
         <v>43960</v>
       </c>
       <c r="AF30">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="16"/>
+        <v>54</v>
+      </c>
+      <c r="AI30" s="21">
+        <f t="shared" si="6"/>
+        <v>43960</v>
+      </c>
+      <c r="AJ30">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="15"/>
-        <v>54</v>
-      </c>
-      <c r="AI30" s="21">
-        <f t="shared" si="5"/>
-        <v>43960</v>
-      </c>
-      <c r="AJ30">
-        <f>L30-AI30</f>
         <v>0</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>469</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.9</v>
       </c>
     </row>
@@ -37565,19 +37561,19 @@
         <v>0.18</v>
       </c>
       <c r="Z31" s="23">
+        <f t="shared" si="11"/>
+        <v>1.666103926549882E-4</v>
+      </c>
+      <c r="AA31" s="23">
+        <f t="shared" si="13"/>
+        <v>4.3473517056923251E-3</v>
+      </c>
+      <c r="AB31">
         <f t="shared" si="10"/>
-        <v>1.666103926549882E-4</v>
-      </c>
-      <c r="AA31" s="23">
+        <v>-1.3995512081385977</v>
+      </c>
+      <c r="AC31">
         <f t="shared" si="12"/>
-        <v>4.3473517056923251E-3</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="9"/>
-        <v>-1.3995512081385977</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="11"/>
         <v>-3.7782979121012459</v>
       </c>
       <c r="AD31" s="21">
@@ -37589,31 +37585,31 @@
         <v>43998</v>
       </c>
       <c r="AF31">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="AI31" s="21">
+        <f t="shared" si="6"/>
+        <v>43952</v>
+      </c>
+      <c r="AJ31">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" si="15"/>
-        <v>62</v>
-      </c>
-      <c r="AI31" s="21">
-        <f t="shared" si="5"/>
-        <v>43952</v>
-      </c>
-      <c r="AJ31">
-        <f>L31-AI31</f>
         <v>10</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6</v>
       </c>
     </row>
@@ -37694,19 +37690,19 @@
         <v>0.16</v>
       </c>
       <c r="Z32" s="23">
+        <f t="shared" si="11"/>
+        <v>2.8388553878758762E-4</v>
+      </c>
+      <c r="AA32" s="23">
+        <f t="shared" si="13"/>
+        <v>1.9464737128052696E-2</v>
+      </c>
+      <c r="AB32">
         <f t="shared" si="10"/>
-        <v>2.8388553878758762E-4</v>
-      </c>
-      <c r="AA32" s="23">
+        <v>-1.8297246150183237</v>
+      </c>
+      <c r="AC32">
         <f t="shared" si="12"/>
-        <v>1.9464737128052696E-2</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="9"/>
-        <v>-1.8297246150183237</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="11"/>
         <v>-3.5468567299986686</v>
       </c>
       <c r="AD32" s="21">
@@ -37718,31 +37714,31 @@
         <v>44014</v>
       </c>
       <c r="AF32">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="16"/>
+        <v>85</v>
+      </c>
+      <c r="AI32" s="21">
+        <f t="shared" si="6"/>
+        <v>43929</v>
+      </c>
+      <c r="AJ32">
         <f t="shared" si="3"/>
-        <v>103</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="15"/>
-        <v>85</v>
-      </c>
-      <c r="AI32" s="21">
-        <f t="shared" si="5"/>
-        <v>43929</v>
-      </c>
-      <c r="AJ32">
-        <f>L32-AI32</f>
         <v>40</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>713</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.5</v>
       </c>
     </row>
@@ -37823,19 +37819,19 @@
         <v>0.18</v>
       </c>
       <c r="Z33" s="23">
+        <f t="shared" si="11"/>
+        <v>7.812246471842507E-4</v>
+      </c>
+      <c r="AA33" s="23">
+        <f t="shared" si="13"/>
+        <v>6.3261538931425939E-3</v>
+      </c>
+      <c r="AB33">
         <f t="shared" si="10"/>
-        <v>7.812246471842507E-4</v>
-      </c>
-      <c r="AA33" s="23">
+        <v>-0.85112007229380371</v>
+      </c>
+      <c r="AC33">
         <f t="shared" si="12"/>
-        <v>6.3261538931425939E-3</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="9"/>
-        <v>-0.85112007229380371</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="11"/>
         <v>-3.1072240634291677</v>
       </c>
       <c r="AD33" s="21">
@@ -37847,31 +37843,31 @@
         <v>44014</v>
       </c>
       <c r="AF33">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="AI33" s="21">
+        <f t="shared" si="6"/>
+        <v>43957</v>
+      </c>
+      <c r="AJ33">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="15"/>
-        <v>57</v>
-      </c>
-      <c r="AI33" s="21">
-        <f t="shared" si="5"/>
-        <v>43957</v>
-      </c>
-      <c r="AJ33">
-        <f>L33-AI33</f>
         <v>9</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>511</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.5</v>
       </c>
     </row>
@@ -37952,55 +37948,55 @@
         <v>0.16</v>
       </c>
       <c r="Z34" s="23">
+        <f t="shared" si="11"/>
+        <v>2.6097356752248426E-4</v>
+      </c>
+      <c r="AA34" s="23">
+        <f t="shared" si="13"/>
+        <v>2.0408542350560267E-2</v>
+      </c>
+      <c r="AB34">
         <f t="shared" si="10"/>
-        <v>2.6097356752248426E-4</v>
-      </c>
-      <c r="AA34" s="23">
+        <v>-1.8876261246793256</v>
+      </c>
+      <c r="AC34">
         <f t="shared" si="12"/>
-        <v>2.0408542350560267E-2</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="9"/>
-        <v>-1.8876261246793256</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="11"/>
         <v>-3.5834034775676691</v>
       </c>
       <c r="AD34" s="21">
-        <f t="shared" ref="AD34:AD52" si="16">IF(I34=0,$AM$1,I34)</f>
+        <f t="shared" ref="AD34:AD52" si="17">IF(I34=0,$AM$1,I34)</f>
         <v>43912</v>
       </c>
       <c r="AE34" s="21">
-        <f>IF(J34=0,$AM$1,J34)</f>
+        <f t="shared" ref="AE34:AE52" si="18">IF(J34=0,$AM$1,J34)</f>
         <v>44014</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="AI34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43938</v>
       </c>
       <c r="AJ34">
-        <f>L34-AI34</f>
+        <f t="shared" ref="AJ34:AJ52" si="19">L34-AI34</f>
         <v>28</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>504</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.6</v>
       </c>
     </row>
@@ -38081,55 +38077,55 @@
         <v>0.16</v>
       </c>
       <c r="Z35" s="23">
+        <f t="shared" si="11"/>
+        <v>1.1986185935155562E-3</v>
+      </c>
+      <c r="AA35" s="23">
+        <f t="shared" si="13"/>
+        <v>7.02866630327381E-3</v>
+      </c>
+      <c r="AB35">
         <f t="shared" si="10"/>
-        <v>1.1986185935155562E-3</v>
-      </c>
-      <c r="AA35" s="23">
+        <v>-0.68699109840407591</v>
+      </c>
+      <c r="AC35">
         <f t="shared" si="12"/>
-        <v>7.02866630327381E-3</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="9"/>
-        <v>-0.68699109840407591</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="11"/>
         <v>-2.9213189896141936</v>
       </c>
       <c r="AD35" s="21">
+        <f t="shared" si="17"/>
+        <v>43920</v>
+      </c>
+      <c r="AE35" s="21">
+        <f t="shared" si="18"/>
+        <v>43973</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="AH35">
         <f t="shared" si="16"/>
-        <v>43920</v>
-      </c>
-      <c r="AE35" s="21">
-        <f>IF(J35=0,$AM$1,J35)</f>
-        <v>43973</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AI35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44008</v>
       </c>
       <c r="AJ35">
-        <f>L35-AI35</f>
+        <f t="shared" si="19"/>
         <v>-49</v>
       </c>
       <c r="AK35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="AL35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -38210,54 +38206,54 @@
         <v>0.15</v>
       </c>
       <c r="Z36" s="23">
+        <f t="shared" si="11"/>
+        <v>4.710049113445085E-4</v>
+      </c>
+      <c r="AA36" s="23">
+        <f t="shared" si="13"/>
+        <v>5.0205439712029173E-3</v>
+      </c>
+      <c r="AB36">
         <f t="shared" si="10"/>
-        <v>4.710049113445085E-4</v>
-      </c>
-      <c r="AA36" s="23">
+        <v>-0.98494196229402942</v>
+      </c>
+      <c r="AC36">
         <f t="shared" si="12"/>
-        <v>5.0205439712029173E-3</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="9"/>
-        <v>-0.98494196229402942</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="11"/>
         <v>-3.3269745642963731</v>
       </c>
       <c r="AD36" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44014</v>
       </c>
       <c r="AE36" s="21">
-        <f>IF(J36=0,$AM$1,J36)</f>
+        <f t="shared" si="18"/>
         <v>44014</v>
       </c>
       <c r="AF36">
         <v>0</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>65</v>
       </c>
       <c r="AI36" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43949</v>
       </c>
       <c r="AJ36">
-        <f>L36-AI36</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AK36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>618</v>
       </c>
       <c r="AL36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.7</v>
       </c>
     </row>
@@ -38329,55 +38325,55 @@
         <v>0.17</v>
       </c>
       <c r="Z37" s="23">
+        <f t="shared" si="11"/>
+        <v>6.5837188806788208E-4</v>
+      </c>
+      <c r="AA37" s="23">
+        <f t="shared" si="13"/>
+        <v>4.8891127566225998E-3</v>
+      </c>
+      <c r="AB37">
         <f t="shared" si="10"/>
-        <v>6.5837188806788208E-4</v>
-      </c>
-      <c r="AA37" s="23">
+        <v>-0.80794514716907773</v>
+      </c>
+      <c r="AC37">
         <f t="shared" si="12"/>
-        <v>4.8891127566225998E-3</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="9"/>
-        <v>-0.80794514716907773</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="11"/>
         <v>-3.1815287214131085</v>
       </c>
       <c r="AD37" s="21">
+        <f t="shared" si="17"/>
+        <v>43914</v>
+      </c>
+      <c r="AE37" s="21">
+        <f t="shared" si="18"/>
+        <v>43971</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="AH37">
         <f t="shared" si="16"/>
-        <v>43914</v>
-      </c>
-      <c r="AE37" s="21">
-        <f>IF(J37=0,$AM$1,J37)</f>
-        <v>43971</v>
-      </c>
-      <c r="AF37">
-        <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="AG37">
-        <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
-      <c r="AH37">
-        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="AI37" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43950</v>
       </c>
       <c r="AJ37">
-        <f>L37-AI37</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="AK37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="AL37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.9</v>
       </c>
     </row>
@@ -38458,53 +38454,53 @@
         <v>0.16</v>
       </c>
       <c r="Z38" s="23">
+        <f t="shared" si="11"/>
+        <v>8.6455280251803227E-4</v>
+      </c>
+      <c r="AA38" s="23">
+        <f t="shared" si="13"/>
+        <v>4.0009342952550533E-3</v>
+      </c>
+      <c r="AB38">
         <f t="shared" si="10"/>
-        <v>8.6455280251803227E-4</v>
-      </c>
-      <c r="AA38" s="23">
+        <v>-0.55963735955945682</v>
+      </c>
+      <c r="AC38">
         <f t="shared" si="12"/>
-        <v>4.0009342952550533E-3</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" si="9"/>
-        <v>-0.55963735955945682</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" si="11"/>
         <v>-3.063208477066846</v>
       </c>
       <c r="AD38" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44014</v>
       </c>
       <c r="AE38" s="21">
-        <f>IF(J38=0,$AM$1,J38)</f>
+        <f t="shared" si="18"/>
         <v>44014</v>
       </c>
       <c r="AF38">
         <v>0</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="AH38">
         <v>0</v>
       </c>
       <c r="AI38" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44014</v>
       </c>
       <c r="AJ38">
-        <f>L38-AI38</f>
+        <f t="shared" si="19"/>
         <v>-69</v>
       </c>
       <c r="AK38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>539</v>
       </c>
       <c r="AL38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.6</v>
       </c>
     </row>
@@ -38585,35 +38581,35 @@
         <v>0.18</v>
       </c>
       <c r="Z39" s="23">
+        <f t="shared" si="11"/>
+        <v>5.0969846897174777E-4</v>
+      </c>
+      <c r="AA39" s="23">
+        <f t="shared" si="13"/>
+        <v>2.4411120494292975E-3</v>
+      </c>
+      <c r="AB39">
         <f t="shared" si="10"/>
-        <v>5.0969846897174777E-4</v>
-      </c>
-      <c r="AA39" s="23">
+        <v>-0.57856195169902913</v>
+      </c>
+      <c r="AC39">
         <f t="shared" si="12"/>
-        <v>2.4411120494292975E-3</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="9"/>
-        <v>-0.57856195169902913</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="11"/>
         <v>-3.2926866709396818</v>
       </c>
       <c r="AD39" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43913</v>
       </c>
       <c r="AE39" s="21">
-        <f>IF(J39=0,$AM$1,J39)</f>
+        <f t="shared" si="18"/>
         <v>44001</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="AH39">
@@ -38621,19 +38617,19 @@
         <v>54</v>
       </c>
       <c r="AI39" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43960</v>
       </c>
       <c r="AJ39">
-        <f>L39-AI39</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="AK39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>648</v>
       </c>
       <c r="AL39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.6</v>
       </c>
     </row>
@@ -38714,35 +38710,35 @@
         <v>0.18</v>
       </c>
       <c r="Z40" s="23">
+        <f t="shared" si="11"/>
+        <v>3.7541793354602853E-4</v>
+      </c>
+      <c r="AA40" s="23">
+        <f t="shared" si="13"/>
+        <v>7.0511108716598504E-3</v>
+      </c>
+      <c r="AB40">
         <f t="shared" si="10"/>
-        <v>3.7541793354602853E-4</v>
-      </c>
-      <c r="AA40" s="23">
+        <v>-1.2499813373877044</v>
+      </c>
+      <c r="AC40">
         <f t="shared" si="12"/>
-        <v>7.0511108716598504E-3</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" si="9"/>
-        <v>-1.2499813373877044</v>
-      </c>
-      <c r="AC40">
-        <f t="shared" si="11"/>
         <v>-3.4254849851668485</v>
       </c>
       <c r="AD40" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43922</v>
       </c>
       <c r="AE40" s="21">
-        <f>IF(J40=0,$AM$1,J40)</f>
+        <f t="shared" si="18"/>
         <v>43987</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="AH40">
@@ -38750,19 +38746,19 @@
         <v>74</v>
       </c>
       <c r="AI40" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43940</v>
       </c>
       <c r="AJ40">
-        <f>L40-AI40</f>
+        <f t="shared" si="19"/>
         <v>47</v>
       </c>
       <c r="AK40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>572</v>
       </c>
       <c r="AL40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.2</v>
       </c>
     </row>
@@ -38843,35 +38839,35 @@
         <v>0.17</v>
       </c>
       <c r="Z41" s="23">
+        <f t="shared" si="11"/>
+        <v>3.1211133862661552E-4</v>
+      </c>
+      <c r="AA41" s="23">
+        <f t="shared" si="13"/>
+        <v>1.606995077152977E-2</v>
+      </c>
+      <c r="AB41">
         <f t="shared" si="10"/>
-        <v>3.1211133862661552E-4</v>
-      </c>
-      <c r="AA41" s="23">
+        <v>-1.7031871245067094</v>
+      </c>
+      <c r="AC41">
         <f t="shared" si="12"/>
-        <v>1.606995077152977E-2</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="9"/>
-        <v>-1.7031871245067094</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="11"/>
         <v>-3.5056904536559634</v>
       </c>
       <c r="AD41" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43918</v>
       </c>
       <c r="AE41" s="21">
-        <f>IF(J41=0,$AM$1,J41)</f>
+        <f t="shared" si="18"/>
         <v>43960</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="AH41">
@@ -38879,19 +38875,19 @@
         <v>75</v>
       </c>
       <c r="AI41" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43939</v>
       </c>
       <c r="AJ41">
-        <f>L41-AI41</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="AK41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="AL41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.9</v>
       </c>
     </row>
@@ -38972,27 +38968,27 @@
         <v>0.18</v>
       </c>
       <c r="Z42" s="23">
+        <f t="shared" si="11"/>
+        <v>2.5388822899191938E-3</v>
+      </c>
+      <c r="AA42" s="23">
+        <f t="shared" si="13"/>
+        <v>8.8209834254730467E-3</v>
+      </c>
+      <c r="AB42">
         <f t="shared" si="10"/>
-        <v>2.5388822899191938E-3</v>
-      </c>
-      <c r="AA42" s="23">
+        <v>-0.39346235766043258</v>
+      </c>
+      <c r="AC42">
         <f t="shared" si="12"/>
-        <v>8.8209834254730467E-3</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="9"/>
-        <v>-0.39346235766043258</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="11"/>
         <v>-2.595357433834272</v>
       </c>
       <c r="AD42" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43928</v>
       </c>
       <c r="AE42" s="21">
-        <f>IF(J42=0,$AM$1,J42)</f>
+        <f t="shared" si="18"/>
         <v>43955</v>
       </c>
       <c r="AF42">
@@ -39000,26 +38996,26 @@
         <v>27</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="AH42">
         <v>0</v>
       </c>
       <c r="AI42" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44014</v>
       </c>
       <c r="AJ42">
-        <f>L42-AI42</f>
+        <f t="shared" si="19"/>
         <v>-73</v>
       </c>
       <c r="AK42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>326</v>
       </c>
       <c r="AL42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.3</v>
       </c>
     </row>
@@ -39057,7 +39053,7 @@
       <c r="K43" s="11">
         <v>0</v>
       </c>
-      <c r="L43" s="38">
+      <c r="L43" s="29">
         <f>H43</f>
         <v>43903</v>
       </c>
@@ -39101,53 +39097,53 @@
         <v>0.16</v>
       </c>
       <c r="Z43" s="23">
+        <f t="shared" si="11"/>
+        <v>4.9533287616111352E-4</v>
+      </c>
+      <c r="AA43" s="23">
+        <f t="shared" si="13"/>
+        <v>8.0058034423934662E-3</v>
+      </c>
+      <c r="AB43">
         <f t="shared" si="10"/>
-        <v>4.9533287616111352E-4</v>
-      </c>
-      <c r="AA43" s="23">
+        <v>-1.1807699945755192</v>
+      </c>
+      <c r="AC43">
         <f t="shared" si="12"/>
-        <v>8.0058034423934662E-3</v>
-      </c>
-      <c r="AB43">
-        <f t="shared" si="9"/>
-        <v>-1.1807699945755192</v>
-      </c>
-      <c r="AC43">
-        <f t="shared" si="11"/>
         <v>-3.3051028461311707</v>
       </c>
       <c r="AD43" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44014</v>
       </c>
       <c r="AE43" s="21">
-        <f>IF(J43=0,$AM$1,J43)</f>
+        <f t="shared" si="18"/>
         <v>44014</v>
       </c>
       <c r="AF43">
         <v>0</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="AH43">
         <v>0</v>
       </c>
       <c r="AI43" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44014</v>
       </c>
       <c r="AJ43">
-        <f>L43-AI43</f>
+        <f t="shared" si="19"/>
         <v>-111</v>
       </c>
       <c r="AK43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>414</v>
       </c>
       <c r="AL43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.1</v>
       </c>
     </row>
@@ -39228,54 +39224,54 @@
         <v>0.16</v>
       </c>
       <c r="Z44" s="23">
+        <f t="shared" si="11"/>
+        <v>1.66306992161016E-3</v>
+      </c>
+      <c r="AA44" s="23">
+        <f t="shared" si="13"/>
+        <v>7.5968868583650541E-3</v>
+      </c>
+      <c r="AB44">
         <f t="shared" si="10"/>
-        <v>1.66306992161016E-3</v>
-      </c>
-      <c r="AA44" s="23">
+        <v>-0.5524236348877416</v>
+      </c>
+      <c r="AC44">
         <f t="shared" si="12"/>
-        <v>7.5968868583650541E-3</v>
-      </c>
-      <c r="AB44">
-        <f t="shared" si="9"/>
-        <v>-0.5524236348877416</v>
-      </c>
-      <c r="AC44">
-        <f t="shared" si="11"/>
         <v>-2.779089491050422</v>
       </c>
       <c r="AD44" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43923</v>
       </c>
       <c r="AE44" s="21">
-        <f>IF(J44=0,$AM$1,J44)</f>
+        <f t="shared" si="18"/>
         <v>43952</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="AH44">
         <v>0</v>
       </c>
       <c r="AI44" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44014</v>
       </c>
       <c r="AJ44">
-        <f>L44-AI44</f>
+        <f t="shared" si="19"/>
         <v>-62</v>
       </c>
       <c r="AK44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>275</v>
       </c>
       <c r="AL44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.3</v>
       </c>
     </row>
@@ -39356,55 +39352,55 @@
         <v>0.13</v>
       </c>
       <c r="Z45" s="23">
+        <f t="shared" si="11"/>
+        <v>1.8071312140386794E-3</v>
+      </c>
+      <c r="AA45" s="23">
+        <f t="shared" si="13"/>
+        <v>6.8023153215411762E-3</v>
+      </c>
+      <c r="AB45">
         <f t="shared" si="10"/>
-        <v>1.8071312140386794E-3</v>
-      </c>
-      <c r="AA45" s="23">
+        <v>-0.44156181224340835</v>
+      </c>
+      <c r="AC45">
         <f t="shared" si="12"/>
-        <v>6.8023153215411762E-3</v>
-      </c>
-      <c r="AB45">
-        <f t="shared" si="9"/>
-        <v>-0.44156181224340835</v>
-      </c>
-      <c r="AC45">
-        <f t="shared" si="11"/>
         <v>-2.7430103125945386</v>
       </c>
       <c r="AD45" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43923</v>
       </c>
       <c r="AE45" s="21">
-        <f>IF(J45=0,$AM$1,J45)</f>
+        <f t="shared" si="18"/>
         <v>44014</v>
       </c>
       <c r="AF45">
-        <f t="shared" ref="AF45" si="17">AE45-AD45</f>
+        <f t="shared" ref="AF45" si="20">AE45-AD45</f>
         <v>91</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="AH45">
-        <f t="shared" ref="AH45:AH50" si="18">$AM$1-M45</f>
+        <f t="shared" ref="AH45:AH50" si="21">$AM$1-M45</f>
         <v>55</v>
       </c>
       <c r="AI45" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43959</v>
       </c>
       <c r="AJ45">
-        <f>L45-AI45</f>
+        <f t="shared" si="19"/>
         <v>-7</v>
       </c>
       <c r="AK45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>521</v>
       </c>
       <c r="AL45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.9</v>
       </c>
     </row>
@@ -39485,51 +39481,51 @@
         <v>0.11</v>
       </c>
       <c r="Z46" s="23">
+        <f t="shared" si="11"/>
+        <v>1.4279816709663236E-3</v>
+      </c>
+      <c r="AA46" s="23">
+        <f t="shared" si="13"/>
+        <v>8.0667994261500332E-3</v>
+      </c>
+      <c r="AB46">
         <f t="shared" si="10"/>
-        <v>1.4279816709663236E-3</v>
-      </c>
-      <c r="AA46" s="23">
+        <v>-0.66736811378477434</v>
+      </c>
+      <c r="AC46">
         <f t="shared" si="12"/>
-        <v>8.0667994261500332E-3</v>
-      </c>
-      <c r="AB46">
-        <f t="shared" si="9"/>
-        <v>-0.66736811378477434</v>
-      </c>
-      <c r="AC46">
-        <f t="shared" si="11"/>
         <v>-2.8452773669640958</v>
       </c>
       <c r="AD46" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44014</v>
       </c>
       <c r="AE46" s="21">
-        <f>IF(J46=0,$AM$1,J46)</f>
+        <f t="shared" si="18"/>
         <v>44014</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>83</v>
       </c>
       <c r="AI46" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43931</v>
       </c>
       <c r="AJ46">
-        <f>L46-AI46</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="AK46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>580</v>
       </c>
       <c r="AL46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -39610,55 +39606,55 @@
         <v>0.2</v>
       </c>
       <c r="Z47" s="23">
+        <f t="shared" si="11"/>
+        <v>8.1430754320220854E-5</v>
+      </c>
+      <c r="AA47" s="23">
+        <f t="shared" si="13"/>
+        <v>1.9974485030312995E-3</v>
+      </c>
+      <c r="AB47">
         <f t="shared" si="10"/>
-        <v>8.1430754320220854E-5</v>
-      </c>
-      <c r="AA47" s="23">
+        <v>-1.3716110699496884</v>
+      </c>
+      <c r="AC47">
         <f t="shared" si="12"/>
-        <v>1.9974485030312995E-3</v>
-      </c>
-      <c r="AB47">
-        <f t="shared" si="9"/>
-        <v>-1.3716110699496884</v>
-      </c>
-      <c r="AC47">
-        <f t="shared" si="11"/>
         <v>-4.0892115421739792</v>
       </c>
       <c r="AD47" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43915</v>
       </c>
       <c r="AE47" s="21">
-        <f>IF(J47=0,$AM$1,J47)</f>
+        <f t="shared" si="18"/>
         <v>43966</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>76</v>
       </c>
       <c r="AI47" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43938</v>
       </c>
       <c r="AJ47">
-        <f>L47-AI47</f>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="AK47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>513</v>
       </c>
       <c r="AL47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -39739,55 +39735,55 @@
         <v>0.16</v>
       </c>
       <c r="Z48" s="23">
+        <f t="shared" si="11"/>
+        <v>5.1258058967900311E-4</v>
+      </c>
+      <c r="AA48" s="23">
+        <f t="shared" si="13"/>
+        <v>7.7605593538619946E-3</v>
+      </c>
+      <c r="AB48">
         <f t="shared" si="10"/>
-        <v>5.1258058967900311E-4</v>
-      </c>
-      <c r="AA48" s="23">
+        <v>-1.1504547558687768</v>
+      </c>
+      <c r="AC48">
         <f t="shared" si="12"/>
-        <v>7.7605593538619946E-3</v>
-      </c>
-      <c r="AB48">
-        <f t="shared" si="9"/>
-        <v>-1.1504547558687768</v>
-      </c>
-      <c r="AC48">
-        <f t="shared" si="11"/>
         <v>-3.2902378436354032</v>
       </c>
       <c r="AD48" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43920</v>
       </c>
       <c r="AE48" s="21">
-        <f>IF(J48=0,$AM$1,J48)</f>
+        <f t="shared" si="18"/>
         <v>43980</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>34</v>
       </c>
       <c r="AI48" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43980</v>
       </c>
       <c r="AJ48">
-        <f>L48-AI48</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>378</v>
       </c>
       <c r="AL48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.7</v>
       </c>
     </row>
@@ -39868,55 +39864,55 @@
         <v>0.16</v>
       </c>
       <c r="Z49" s="23">
+        <f t="shared" si="11"/>
+        <v>5.9636994629883706E-4</v>
+      </c>
+      <c r="AA49" s="23">
+        <f t="shared" si="13"/>
+        <v>4.7637935763764246E-3</v>
+      </c>
+      <c r="AB49">
         <f t="shared" si="10"/>
-        <v>5.9636994629883706E-4</v>
-      </c>
-      <c r="AA49" s="23">
+        <v>-0.84435190060439569</v>
+      </c>
+      <c r="AC49">
         <f t="shared" si="12"/>
-        <v>4.7637935763764246E-3</v>
-      </c>
-      <c r="AB49">
-        <f t="shared" si="9"/>
-        <v>-0.84435190060439569</v>
-      </c>
-      <c r="AC49">
-        <f t="shared" si="11"/>
         <v>-3.2244842506741875</v>
       </c>
       <c r="AD49" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43913</v>
       </c>
       <c r="AE49" s="21">
-        <f>IF(J49=0,$AM$1,J49)</f>
+        <f t="shared" si="18"/>
         <v>43983</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="AI49" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43955</v>
       </c>
       <c r="AJ49">
-        <f>L49-AI49</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AK49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>790</v>
       </c>
       <c r="AL49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.3</v>
       </c>
     </row>
@@ -39997,55 +39993,55 @@
         <v>0.2</v>
       </c>
       <c r="Z50" s="23">
+        <f t="shared" si="11"/>
+        <v>3.0623003690265763E-4</v>
+      </c>
+      <c r="AA50" s="23">
+        <f t="shared" si="13"/>
+        <v>1.8467941646842009E-3</v>
+      </c>
+      <c r="AB50">
         <f t="shared" si="10"/>
-        <v>3.0623003690265763E-4</v>
-      </c>
-      <c r="AA50" s="23">
+        <v>-0.70163199435132939</v>
+      </c>
+      <c r="AC50">
         <f t="shared" si="12"/>
-        <v>1.8467941646842009E-3</v>
-      </c>
-      <c r="AB50">
-        <f t="shared" si="9"/>
-        <v>-0.70163199435132939</v>
-      </c>
-      <c r="AC50">
-        <f t="shared" si="11"/>
         <v>-3.5139522133069376</v>
       </c>
       <c r="AD50" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43914</v>
       </c>
       <c r="AE50" s="21">
-        <f>IF(J50=0,$AM$1,J50)</f>
+        <f t="shared" si="18"/>
         <v>43955</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="AI50" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43955</v>
       </c>
       <c r="AJ50">
-        <f>L50-AI50</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>424</v>
       </c>
       <c r="AL50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.8</v>
       </c>
     </row>
@@ -40126,54 +40122,54 @@
         <v>0.17</v>
       </c>
       <c r="Z51" s="23">
+        <f t="shared" si="11"/>
+        <v>7.7628747096447485E-4</v>
+      </c>
+      <c r="AA51" s="23">
+        <f t="shared" si="13"/>
+        <v>5.9756762112355101E-3</v>
+      </c>
+      <c r="AB51">
         <f t="shared" si="10"/>
-        <v>7.7628747096447485E-4</v>
-      </c>
-      <c r="AA51" s="23">
+        <v>-0.82592971249662195</v>
+      </c>
+      <c r="AC51">
         <f t="shared" si="12"/>
-        <v>5.9756762112355101E-3</v>
-      </c>
-      <c r="AB51">
-        <f t="shared" si="9"/>
-        <v>-0.82592971249662195</v>
-      </c>
-      <c r="AC51">
-        <f t="shared" si="11"/>
         <v>-3.109977423156308</v>
       </c>
       <c r="AD51" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43915</v>
       </c>
       <c r="AE51" s="21">
-        <f>IF(J51=0,$AM$1,J51)</f>
+        <f t="shared" si="18"/>
         <v>43964</v>
       </c>
       <c r="AF51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="AG51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="AH51">
         <v>0</v>
       </c>
       <c r="AI51" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44014</v>
       </c>
       <c r="AJ51">
-        <f>L51-AI51</f>
+        <f t="shared" si="19"/>
         <v>-52</v>
       </c>
       <c r="AK51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>370</v>
       </c>
       <c r="AL51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -40254,34 +40250,34 @@
         <v>0.17</v>
       </c>
       <c r="Z52" s="23">
+        <f t="shared" si="11"/>
+        <v>4.1887571680539762E-4</v>
+      </c>
+      <c r="AA52" s="23">
+        <f t="shared" si="13"/>
+        <v>2.8282765341323128E-3</v>
+      </c>
+      <c r="AB52">
         <f t="shared" si="10"/>
-        <v>4.1887571680539762E-4</v>
-      </c>
-      <c r="AA52" s="23">
+        <v>-0.75982386929411205</v>
+      </c>
+      <c r="AC52">
         <f t="shared" si="12"/>
-        <v>2.8282765341323128E-3</v>
-      </c>
-      <c r="AB52">
-        <f t="shared" si="9"/>
-        <v>-0.75982386929411205</v>
-      </c>
-      <c r="AC52">
-        <f t="shared" si="11"/>
         <v>-3.3779148159651173</v>
       </c>
       <c r="AD52" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44014</v>
       </c>
       <c r="AE52" s="21">
-        <f>IF(J52=0,$AM$1,J52)</f>
+        <f t="shared" si="18"/>
         <v>44014</v>
       </c>
       <c r="AF52">
         <v>0</v>
       </c>
       <c r="AG52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="AH52">
@@ -40289,19 +40285,19 @@
         <v>62</v>
       </c>
       <c r="AI52" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43952</v>
       </c>
       <c r="AJ52">
-        <f>L52-AI52</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>508</v>
       </c>
       <c r="AL52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.1</v>
       </c>
     </row>
@@ -40346,16 +40342,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="33">
         <v>44014</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -40366,138 +40362,138 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="33"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="7"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="33"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="33"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="100.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="33"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="33"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="33"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -40513,16 +40509,16 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="32">
         <v>2018</v>
       </c>
       <c r="E15" s="7"/>
@@ -40531,60 +40527,60 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="7"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="33"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="33"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="7"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -40600,16 +40596,16 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="31">
         <v>44018</v>
       </c>
       <c r="E22" s="19"/>
@@ -40618,55 +40614,55 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="34"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="19"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="34"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="19"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="34"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="19"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="34"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="19"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="35"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="20" t="s">
         <v>87</v>
       </c>

--- a/covid-19_dist0720_0716CSD.xlsx
+++ b/covid-19_dist0720_0716CSD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SumiKim\Desktop\MIDS_Courses\W203_Statistics\Lab3\Lab-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F374EB0-233D-46DA-B85E-69F682E3BE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D3AE95-3C23-422C-AD65-DDF70D4699D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Mtest2" sheetId="9" r:id="rId2"/>
     <sheet name="Mtest3" sheetId="10" r:id="rId3"/>
     <sheet name="Mtest4" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
+    <sheet name="Mtest5" sheetId="12" r:id="rId5"/>
     <sheet name="test1" sheetId="4" r:id="rId6"/>
     <sheet name="Infromation" sheetId="1" r:id="rId7"/>
     <sheet name="Covid-19" sheetId="2" r:id="rId8"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="176">
   <si>
     <t>Variables</t>
   </si>
@@ -583,34 +583,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>요약 출력</t>
-  </si>
-  <si>
-    <t>회귀분석 통계량</t>
-  </si>
-  <si>
-    <t>다중 상관계수</t>
-  </si>
-  <si>
-    <t>결정계수</t>
-  </si>
-  <si>
-    <t>조정된 결정계수</t>
-  </si>
-  <si>
     <t>표준 오차</t>
-  </si>
-  <si>
-    <t>분산 분석</t>
-  </si>
-  <si>
-    <t>회귀</t>
-  </si>
-  <si>
-    <t>계</t>
-  </si>
-  <si>
-    <t>Y 절편</t>
   </si>
   <si>
     <t>자유도</t>
@@ -1298,6 +1271,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1325,7 +1299,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7079,7 +7052,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$76</c:f>
+              <c:f>Mtest5!$B$26:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -7906,7 +7879,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$76</c:f>
+              <c:f>Mtest5!$B$26:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -18914,6 +18887,694 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Reopen-MaskMandate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> (X) vs. </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>Log(7D/Population)(Y)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24933198208640944"/>
+          <c:y val="2.5598394874101392E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.38261613220359869"/>
+                  <c:y val="4.260908976254249E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test1!$AJ$2:$AJ$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test1!$AC$2:$AC$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>-2.697716432967173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.4144071728882381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4078718127782115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.8255196492339185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8670716688499676</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.445268369677275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8445713952526472</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.9460891468312589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.421736871479641</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.502394762167123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.7095839628407377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.0157179192920447</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.8613438214993216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.3098129076803535</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.2898742112899257</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.975280471767852</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.0873581448645275</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.5677259366643019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.6489767583489803</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.76109924101273</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.2861044459359259</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.6540091396816257</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.4863385977541657</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.2690471802236352</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.7455971553356227</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.2854653055889269</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.4274587188333623</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.2231867520728406</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.6988829936285605</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.7782979121012459</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.5468567299986686</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.1072240634291677</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.5834034775676691</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.9213189896141936</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.3269745642963731</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.1815287214131085</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.063208477066846</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.2926866709396818</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.4254849851668485</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.5056904536559634</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.595357433834272</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.3051028461311707</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.779089491050422</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.7430103125945386</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.8452773669640958</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.0892115421739792</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.2902378436354032</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.2244842506741875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.5139522133069376</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.109977423156308</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.3779148159651173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5713-4EBA-B716-806941DC5B34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="427167792"/>
+        <c:axId val="331347880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="427167792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331347880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="331347880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427167792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -22967,6 +23628,46 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -25907,6 +26608,522 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -31751,6 +32968,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>461817</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>182419</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="차트 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962B2EE2-273A-425F-875B-04A356870AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -34582,7 +35837,7 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -35424,32 +36679,32 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B3" s="28"/>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B4" s="25">
         <v>0.62828681920299223</v>
@@ -35460,7 +36715,7 @@
     </row>
     <row r="5" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="25" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B5" s="25">
         <v>0.39474432718421348</v>
@@ -35471,7 +36726,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="25" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B6" s="25">
         <v>0.36952534081688904</v>
@@ -35482,15 +36737,18 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="25" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="B7" s="25">
         <v>0.35062202133007547</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="26" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B8" s="26">
         <v>51</v>
@@ -35498,30 +36756,30 @@
     </row>
     <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="27"/>
       <c r="B11" s="27" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="25" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B12" s="25">
         <v>2</v>
@@ -35541,7 +36799,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="25" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B13" s="25">
         <v>48</v>
@@ -35557,7 +36815,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="26" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B14" s="26">
         <v>50</v>
@@ -35573,33 +36831,33 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="25" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B17" s="25">
         <v>-0.70218597546652739</v>
@@ -35695,13 +36953,13 @@
         <v>116</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>117</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -36390,8 +37648,8 @@
         <v>0.71996216569531635</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" s="25">
+    <row r="75" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="26">
         <v>50</v>
       </c>
       <c r="B75" s="25">
@@ -36405,9 +37663,6 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="26">
-        <v>51</v>
-      </c>
       <c r="B76" s="26">
         <v>-0.99785682521378105</v>
       </c>
@@ -36430,11 +37685,11 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V58" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I44" sqref="F44:I55"/>
       <selection pane="topRight" activeCell="I44" sqref="F44:I55"/>
       <selection pane="bottomLeft" activeCell="I44" sqref="F44:I55"/>
-      <selection pane="bottomRight" activeCell="AR48" sqref="AR48"/>
+      <selection pane="bottomRight" activeCell="AV71" sqref="AV71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -41949,7 +43204,7 @@
         <f t="shared" si="6"/>
         <v>44014</v>
       </c>
-      <c r="AJ43" s="41">
+      <c r="AJ43" s="32">
         <v>0</v>
       </c>
       <c r="AK43">
@@ -43156,16 +44411,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="35">
         <v>44014</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -43176,138 +44431,138 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="7"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="32"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="32"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="100.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="36"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -43323,16 +44578,16 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="34">
         <v>2018</v>
       </c>
       <c r="E15" s="7"/>
@@ -43341,60 +44596,60 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="7"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="7"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -43410,16 +44665,16 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="38" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="33">
         <v>44018</v>
       </c>
       <c r="E22" s="19"/>
@@ -43428,55 +44683,55 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="37"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="19"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="37"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="19"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="19"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="19"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="38"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="20" t="s">
         <v>87</v>
       </c>
